--- a/biology/Botanique/Vivi_Täckholm/Vivi_Täckholm.xlsx
+++ b/biology/Botanique/Vivi_Täckholm/Vivi_Täckholm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vivi_T%C3%A4ckholm</t>
+          <t>Vivi_Täckholm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vivi Laurent-Täckholm (7 janvier 1898 - 3 mai 1978) est un professeur, botaniste et écrivain suédois, qui travailla en Égypte, et fut aussi écrivain pour enfants avec Le Seigneur des Snipp, Snapp, Snorum.
 Elle  étudia la botanique à l'université de Stockholm et obtint son diplôme en 1921. Puis elle voyagea aux États-Unis de 1921 à 1923, gagnant sa vie en faisant divers métiers. Plus tard, en 1926, elle a épousé le professeur de botanique, Gunnar Täckholm (1891–1933). Ils s'installèrent en Égypte, commençant à travailler sur l'importante œuvre de la Flora of Egypt (Flore d'Égypte).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vivi_T%C3%A4ckholm</t>
+          <t>Vivi_Täckholm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Livres
-Vivis resa (Voyages de Vivi). Une année comme employée de maison entre New York et San Francisco, 1923
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Vivis resa (Voyages de Vivi). Une année comme employée de maison entre New York et San Francisco, 1923
 Vivis resa II (Voyages de Vivi II). De Saltsjöbaden au Pacifique, 1924
 Sagan om Snipp, Snapp, Snorum (Seigneur des Snipp, Snapp, Snorum) (1926)
 En skolflicka berättar (Une enfant raconte), 1927
@@ -545,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vivi_T%C3%A4ckholm</t>
+          <t>Vivi_Täckholm</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,8 +582,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Espèces dédiées
-(Rosaceae) Rosa tackholmii Hurst[1]</t>
+          <t>Espèces dédiées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Rosaceae) Rosa tackholmii Hurst</t>
         </is>
       </c>
     </row>
